--- a/data/source/fr_dc_age_sex/xlsx/2007_dc_age_sex_e.xlsx
+++ b/data/source/fr_dc_age_sex/xlsx/2007_dc_age_sex_e.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27217"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/workspaces/legco-data/source/fr_dc_age_sex/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="0" windowWidth="27340" windowHeight="15440"/>
+    <workbookView xWindow="1460" yWindow="460" windowWidth="27340" windowHeight="15440"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -5679,15 +5687,6 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>71+ &amp; UNK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t xml:space="preserve">6,181
 </t>
     </r>
@@ -6150,15 +6149,6 @@
         <family val="2"/>
       </rPr>
       <t>196,521</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>71+ &amp; UNK Sub-total</t>
     </r>
   </si>
   <si>
@@ -6748,6 +6738,12 @@
       <t>F                         M</t>
     </r>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>71+ or above</t>
+  </si>
+  <si>
+    <t>71+ or above Sub-total</t>
   </si>
 </sst>
 </file>
@@ -7021,63 +7017,6 @@
     <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7100,12 +7039,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7141,12 +7074,80 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -7437,75 +7438,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="37" customWidth="1"/>
-    <col min="4" max="5" width="10.1640625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="10" style="37" customWidth="1"/>
-    <col min="7" max="9" width="10.1640625" style="37" customWidth="1"/>
-    <col min="10" max="10" width="10" style="37" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="37" customWidth="1"/>
-    <col min="12" max="13" width="10.1640625" customWidth="1"/>
-    <col min="14" max="14" width="9.83203125" style="37" customWidth="1"/>
-    <col min="15" max="18" width="10.1640625" style="37" customWidth="1"/>
-    <col min="19" max="19" width="10" style="37" customWidth="1"/>
-    <col min="20" max="24" width="10.1640625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" style="18" customWidth="1"/>
+    <col min="4" max="5" width="10.19921875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="10" style="18" customWidth="1"/>
+    <col min="7" max="9" width="10.19921875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="10" style="18" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" style="18" customWidth="1"/>
+    <col min="12" max="13" width="10.19921875" customWidth="1"/>
+    <col min="14" max="14" width="9.796875" style="18" customWidth="1"/>
+    <col min="15" max="18" width="10.19921875" style="18" customWidth="1"/>
+    <col min="19" max="19" width="10" style="18" customWidth="1"/>
+    <col min="20" max="24" width="10.19921875" style="18" customWidth="1"/>
     <col min="25" max="25" width="10" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" style="37" customWidth="1"/>
+    <col min="26" max="26" width="10.796875" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="19" t="s">
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="19" t="s">
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="42" t="s">
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="19" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+    <row r="2" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="46"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
@@ -7518,7 +7519,7 @@
       <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -7530,7 +7531,7 @@
       <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="15" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -7539,7 +7540,7 @@
       <c r="M2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -7557,7 +7558,7 @@
       <c r="S2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="T2" s="15" t="s">
         <v>16</v>
       </c>
       <c r="U2" s="4" t="s">
@@ -7575,14 +7576,14 @@
       <c r="Y2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="43"/>
+      <c r="Z2" s="44"/>
     </row>
-    <row r="3" spans="1:26" ht="24" customHeight="1">
+    <row r="3" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>29</v>
@@ -7596,7 +7597,7 @@
       <c r="F3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="16" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="10" t="s">
@@ -7608,7 +7609,7 @@
       <c r="J3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="16" t="s">
         <v>37</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -7617,7 +7618,7 @@
       <c r="M3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="O3" s="10" t="s">
@@ -7635,7 +7636,7 @@
       <c r="S3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="35" t="s">
+      <c r="T3" s="16" t="s">
         <v>46</v>
       </c>
       <c r="U3" s="10" t="s">
@@ -7657,36 +7658,36 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="12" customHeight="1">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="46">
+      <c r="B4" s="37"/>
+      <c r="C4" s="25">
         <v>1631</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="33">
         <v>701</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="27">
         <v>4838</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="26">
         <v>2243</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="17">
         <v>9413</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="20">
         <v>1683</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="23">
         <v>2910</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="24">
         <v>2579</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="19">
         <v>7172</v>
       </c>
       <c r="L4" s="7">
@@ -7695,52 +7696,52 @@
       <c r="M4" s="8">
         <v>5816</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N4" s="17">
         <v>10451</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="20">
         <v>2438</v>
       </c>
-      <c r="P4" s="44">
+      <c r="P4" s="23">
         <v>6493</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="Q4" s="23">
         <v>7241</v>
       </c>
-      <c r="R4" s="44">
+      <c r="R4" s="23">
         <v>5377</v>
       </c>
-      <c r="S4" s="45">
+      <c r="S4" s="24">
         <v>1115</v>
       </c>
-      <c r="T4" s="38">
+      <c r="T4" s="19">
         <v>22664</v>
       </c>
-      <c r="U4" s="46">
+      <c r="U4" s="25">
         <v>4598</v>
       </c>
-      <c r="V4" s="48">
+      <c r="V4" s="27">
         <v>4560</v>
       </c>
-      <c r="W4" s="48">
+      <c r="W4" s="27">
         <v>4509</v>
       </c>
-      <c r="X4" s="47">
+      <c r="X4" s="26">
         <v>7113</v>
       </c>
       <c r="Y4" s="9">
         <v>20780</v>
       </c>
-      <c r="Z4" s="49">
+      <c r="Z4" s="28">
         <v>70480</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="24" customHeight="1">
+    <row r="5" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>55</v>
@@ -7754,7 +7755,7 @@
       <c r="F5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="16" t="s">
         <v>59</v>
       </c>
       <c r="H5" s="10" t="s">
@@ -7766,7 +7767,7 @@
       <c r="J5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="16" t="s">
         <v>63</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -7775,7 +7776,7 @@
       <c r="M5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="16" t="s">
         <v>66</v>
       </c>
       <c r="O5" s="10" t="s">
@@ -7793,7 +7794,7 @@
       <c r="S5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="T5" s="16" t="s">
         <v>72</v>
       </c>
       <c r="U5" s="10" t="s">
@@ -7815,36 +7816,36 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="12" customHeight="1">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="46">
+      <c r="B6" s="37"/>
+      <c r="C6" s="25">
         <v>5384</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="27">
         <v>2357</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="27">
         <v>15635</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="26">
         <v>7936</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="17">
         <v>31312</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="20">
         <v>5178</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="23">
         <v>8505</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="24">
         <v>7647</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="19">
         <v>21330</v>
       </c>
       <c r="L6" s="7">
@@ -7853,52 +7854,52 @@
       <c r="M6" s="8">
         <v>16800</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="17">
         <v>28933</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="20">
         <v>6372</v>
       </c>
-      <c r="P6" s="44">
+      <c r="P6" s="23">
         <v>16611</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="23">
         <v>16051</v>
       </c>
-      <c r="R6" s="44">
+      <c r="R6" s="23">
         <v>15236</v>
       </c>
-      <c r="S6" s="45">
+      <c r="S6" s="24">
         <v>2902</v>
       </c>
-      <c r="T6" s="38">
+      <c r="T6" s="19">
         <v>57172</v>
       </c>
-      <c r="U6" s="46">
+      <c r="U6" s="25">
         <v>11002</v>
       </c>
-      <c r="V6" s="48">
+      <c r="V6" s="27">
         <v>12151</v>
       </c>
-      <c r="W6" s="48">
+      <c r="W6" s="27">
         <v>11444</v>
       </c>
-      <c r="X6" s="47">
+      <c r="X6" s="26">
         <v>20583</v>
       </c>
       <c r="Y6" s="9">
         <v>55180</v>
       </c>
-      <c r="Z6" s="49">
+      <c r="Z6" s="28">
         <v>193927</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="24" customHeight="1">
+    <row r="7" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>81</v>
@@ -7912,7 +7913,7 @@
       <c r="F7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="16" t="s">
         <v>85</v>
       </c>
       <c r="H7" s="10" t="s">
@@ -7924,7 +7925,7 @@
       <c r="J7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="16" t="s">
         <v>89</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -7933,7 +7934,7 @@
       <c r="M7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="N7" s="16" t="s">
         <v>92</v>
       </c>
       <c r="O7" s="10" t="s">
@@ -7951,7 +7952,7 @@
       <c r="S7" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="T7" s="35" t="s">
+      <c r="T7" s="16" t="s">
         <v>98</v>
       </c>
       <c r="U7" s="10" t="s">
@@ -7973,36 +7974,36 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="12" customHeight="1">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="46">
+      <c r="B8" s="37"/>
+      <c r="C8" s="25">
         <v>7040</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="27">
         <v>3671</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="27">
         <v>21118</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="26">
         <v>9320</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="17">
         <v>41149</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="20">
         <v>8288</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="23">
         <v>10658</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="24">
         <v>10458</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="19">
         <v>29404</v>
       </c>
       <c r="L8" s="7">
@@ -8011,52 +8012,52 @@
       <c r="M8" s="8">
         <v>21200</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="17">
         <v>36097</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="20">
         <v>9722</v>
       </c>
-      <c r="P8" s="44">
+      <c r="P8" s="23">
         <v>23310</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="Q8" s="23">
         <v>18912</v>
       </c>
-      <c r="R8" s="44">
+      <c r="R8" s="23">
         <v>19299</v>
       </c>
-      <c r="S8" s="45">
+      <c r="S8" s="24">
         <v>3803</v>
       </c>
-      <c r="T8" s="38">
+      <c r="T8" s="19">
         <v>75046</v>
       </c>
-      <c r="U8" s="46">
+      <c r="U8" s="25">
         <v>11048</v>
       </c>
-      <c r="V8" s="48">
+      <c r="V8" s="27">
         <v>12506</v>
       </c>
-      <c r="W8" s="48">
+      <c r="W8" s="27">
         <v>13437</v>
       </c>
-      <c r="X8" s="47">
+      <c r="X8" s="26">
         <v>27855</v>
       </c>
       <c r="Y8" s="9">
         <v>64846</v>
       </c>
-      <c r="Z8" s="49">
+      <c r="Z8" s="28">
         <v>246542</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="24" customHeight="1">
+    <row r="9" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>107</v>
@@ -8070,7 +8071,7 @@
       <c r="F9" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="16" t="s">
         <v>111</v>
       </c>
       <c r="H9" s="10" t="s">
@@ -8082,7 +8083,7 @@
       <c r="J9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="16" t="s">
         <v>115</v>
       </c>
       <c r="L9" s="5" t="s">
@@ -8091,7 +8092,7 @@
       <c r="M9" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N9" s="35" t="s">
+      <c r="N9" s="16" t="s">
         <v>118</v>
       </c>
       <c r="O9" s="10" t="s">
@@ -8109,7 +8110,7 @@
       <c r="S9" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="T9" s="35" t="s">
+      <c r="T9" s="16" t="s">
         <v>124</v>
       </c>
       <c r="U9" s="10" t="s">
@@ -8131,36 +8132,36 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="12" customHeight="1">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="46">
+      <c r="B10" s="37"/>
+      <c r="C10" s="25">
         <v>8970</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="27">
         <v>4920</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="27">
         <v>24452</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="26">
         <v>10722</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="17">
         <v>49064</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="20">
         <v>11225</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="23">
         <v>12143</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="24">
         <v>13515</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="19">
         <v>36883</v>
       </c>
       <c r="L10" s="7">
@@ -8169,52 +8170,52 @@
       <c r="M10" s="8">
         <v>23022</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="17">
         <v>40142</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="20">
         <v>13102</v>
       </c>
-      <c r="P10" s="44">
+      <c r="P10" s="23">
         <v>20213</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="23">
         <v>21812</v>
       </c>
-      <c r="R10" s="44">
+      <c r="R10" s="23">
         <v>23847</v>
       </c>
-      <c r="S10" s="45">
+      <c r="S10" s="24">
         <v>4817</v>
       </c>
-      <c r="T10" s="38">
+      <c r="T10" s="19">
         <v>83791</v>
       </c>
-      <c r="U10" s="46">
+      <c r="U10" s="25">
         <v>9869</v>
       </c>
-      <c r="V10" s="48">
+      <c r="V10" s="27">
         <v>10200</v>
       </c>
-      <c r="W10" s="48">
+      <c r="W10" s="27">
         <v>19992</v>
       </c>
-      <c r="X10" s="47">
+      <c r="X10" s="26">
         <v>26996</v>
       </c>
       <c r="Y10" s="9">
         <v>67057</v>
       </c>
-      <c r="Z10" s="49">
+      <c r="Z10" s="28">
         <v>276937</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="24" customHeight="1">
+    <row r="11" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>133</v>
@@ -8228,7 +8229,7 @@
       <c r="F11" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="16" t="s">
         <v>137</v>
       </c>
       <c r="H11" s="10" t="s">
@@ -8240,7 +8241,7 @@
       <c r="J11" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="16" t="s">
         <v>141</v>
       </c>
       <c r="L11" s="5" t="s">
@@ -8249,7 +8250,7 @@
       <c r="M11" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="N11" s="35" t="s">
+      <c r="N11" s="16" t="s">
         <v>144</v>
       </c>
       <c r="O11" s="10" t="s">
@@ -8267,7 +8268,7 @@
       <c r="S11" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="T11" s="35" t="s">
+      <c r="T11" s="16" t="s">
         <v>150</v>
       </c>
       <c r="U11" s="10" t="s">
@@ -8289,36 +8290,36 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="12" customHeight="1">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="46">
+      <c r="B12" s="37"/>
+      <c r="C12" s="25">
         <v>9609</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="27">
         <v>5308</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="27">
         <v>25821</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="26">
         <v>11630</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="17">
         <v>52368</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="20">
         <v>10602</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="23">
         <v>12031</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="24">
         <v>14321</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="19">
         <v>36954</v>
       </c>
       <c r="L12" s="7">
@@ -8327,52 +8328,52 @@
       <c r="M12" s="8">
         <v>24428</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N12" s="17">
         <v>42856</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="20">
         <v>13252</v>
       </c>
-      <c r="P12" s="44">
+      <c r="P12" s="23">
         <v>18748</v>
       </c>
-      <c r="Q12" s="44">
+      <c r="Q12" s="23">
         <v>23124</v>
       </c>
-      <c r="R12" s="44">
+      <c r="R12" s="23">
         <v>22531</v>
       </c>
-      <c r="S12" s="45">
+      <c r="S12" s="24">
         <v>5378</v>
       </c>
-      <c r="T12" s="38">
+      <c r="T12" s="19">
         <v>83033</v>
       </c>
-      <c r="U12" s="46">
+      <c r="U12" s="25">
         <v>12140</v>
       </c>
-      <c r="V12" s="48">
+      <c r="V12" s="27">
         <v>10597</v>
       </c>
-      <c r="W12" s="48">
+      <c r="W12" s="27">
         <v>21338</v>
       </c>
-      <c r="X12" s="47">
+      <c r="X12" s="26">
         <v>24541</v>
       </c>
       <c r="Y12" s="9">
         <v>68616</v>
       </c>
-      <c r="Z12" s="49">
+      <c r="Z12" s="28">
         <v>283827</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="24" customHeight="1">
+    <row r="13" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>158</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>159</v>
@@ -8386,7 +8387,7 @@
       <c r="F13" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H13" s="10" t="s">
@@ -8398,7 +8399,7 @@
       <c r="J13" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="35" t="s">
+      <c r="K13" s="16" t="s">
         <v>167</v>
       </c>
       <c r="L13" s="5" t="s">
@@ -8407,7 +8408,7 @@
       <c r="M13" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N13" s="35" t="s">
+      <c r="N13" s="16" t="s">
         <v>170</v>
       </c>
       <c r="O13" s="10" t="s">
@@ -8425,7 +8426,7 @@
       <c r="S13" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="T13" s="35" t="s">
+      <c r="T13" s="16" t="s">
         <v>176</v>
       </c>
       <c r="U13" s="10" t="s">
@@ -8447,36 +8448,36 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="12" customHeight="1">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="46">
+      <c r="B14" s="37"/>
+      <c r="C14" s="25">
         <v>12440</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="27">
         <v>6584</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="27">
         <v>35335</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="26">
         <v>16048</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="17">
         <v>70407</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="20">
         <v>11672</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="23">
         <v>15589</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="24">
         <v>17463</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="19">
         <v>44724</v>
       </c>
       <c r="L14" s="7">
@@ -8485,52 +8486,52 @@
       <c r="M14" s="8">
         <v>31357</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="17">
         <v>58230</v>
       </c>
-      <c r="O14" s="39">
+      <c r="O14" s="20">
         <v>16812</v>
       </c>
-      <c r="P14" s="44">
+      <c r="P14" s="23">
         <v>29480</v>
       </c>
-      <c r="Q14" s="44">
+      <c r="Q14" s="23">
         <v>31700</v>
       </c>
-      <c r="R14" s="44">
+      <c r="R14" s="23">
         <v>26127</v>
       </c>
-      <c r="S14" s="45">
+      <c r="S14" s="24">
         <v>7183</v>
       </c>
-      <c r="T14" s="38">
+      <c r="T14" s="19">
         <v>111302</v>
       </c>
-      <c r="U14" s="46">
+      <c r="U14" s="25">
         <v>18653</v>
       </c>
-      <c r="V14" s="48">
+      <c r="V14" s="27">
         <v>18429</v>
       </c>
-      <c r="W14" s="48">
+      <c r="W14" s="27">
         <v>25920</v>
       </c>
-      <c r="X14" s="47">
+      <c r="X14" s="26">
         <v>36450</v>
       </c>
       <c r="Y14" s="9">
         <v>99452</v>
       </c>
-      <c r="Z14" s="49">
+      <c r="Z14" s="28">
         <v>384115</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="24" customHeight="1">
+    <row r="15" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>185</v>
@@ -8544,7 +8545,7 @@
       <c r="F15" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="16" t="s">
         <v>189</v>
       </c>
       <c r="H15" s="10" t="s">
@@ -8556,7 +8557,7 @@
       <c r="J15" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="16" t="s">
         <v>193</v>
       </c>
       <c r="L15" s="5" t="s">
@@ -8565,7 +8566,7 @@
       <c r="M15" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="N15" s="35" t="s">
+      <c r="N15" s="16" t="s">
         <v>196</v>
       </c>
       <c r="O15" s="10" t="s">
@@ -8583,7 +8584,7 @@
       <c r="S15" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="T15" s="35" t="s">
+      <c r="T15" s="16" t="s">
         <v>202</v>
       </c>
       <c r="U15" s="10" t="s">
@@ -8605,36 +8606,36 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="12" customHeight="1">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="46">
+      <c r="B16" s="37"/>
+      <c r="C16" s="25">
         <v>14010</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="27">
         <v>7841</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="27">
         <v>40434</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="26">
         <v>18198</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="17">
         <v>80483</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="20">
         <v>11975</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="23">
         <v>19060</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="24">
         <v>18722</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="19">
         <v>49757</v>
       </c>
       <c r="L16" s="7">
@@ -8643,52 +8644,52 @@
       <c r="M16" s="8">
         <v>34533</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="17">
         <v>65124</v>
       </c>
-      <c r="O16" s="39">
+      <c r="O16" s="20">
         <v>17020</v>
       </c>
-      <c r="P16" s="44">
+      <c r="P16" s="23">
         <v>36069</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="Q16" s="23">
         <v>34593</v>
       </c>
-      <c r="R16" s="44">
+      <c r="R16" s="23">
         <v>29783</v>
       </c>
-      <c r="S16" s="45">
+      <c r="S16" s="24">
         <v>7423</v>
       </c>
-      <c r="T16" s="38">
+      <c r="T16" s="19">
         <v>124888</v>
       </c>
-      <c r="U16" s="46">
+      <c r="U16" s="25">
         <v>22202</v>
       </c>
-      <c r="V16" s="48">
+      <c r="V16" s="27">
         <v>24815</v>
       </c>
-      <c r="W16" s="48">
+      <c r="W16" s="27">
         <v>27159</v>
       </c>
-      <c r="X16" s="47">
+      <c r="X16" s="26">
         <v>45298</v>
       </c>
       <c r="Y16" s="9">
         <v>119474</v>
       </c>
-      <c r="Z16" s="49">
+      <c r="Z16" s="28">
         <v>439726</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="24" customHeight="1">
+    <row r="17" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>211</v>
@@ -8702,7 +8703,7 @@
       <c r="F17" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H17" s="10" t="s">
@@ -8714,7 +8715,7 @@
       <c r="J17" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="16" t="s">
         <v>219</v>
       </c>
       <c r="L17" s="5" t="s">
@@ -8723,7 +8724,7 @@
       <c r="M17" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="N17" s="35" t="s">
+      <c r="N17" s="16" t="s">
         <v>222</v>
       </c>
       <c r="O17" s="10" t="s">
@@ -8741,7 +8742,7 @@
       <c r="S17" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="T17" s="35" t="s">
+      <c r="T17" s="16" t="s">
         <v>228</v>
       </c>
       <c r="U17" s="10" t="s">
@@ -8763,36 +8764,36 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="12" customHeight="1">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="46">
+      <c r="B18" s="37"/>
+      <c r="C18" s="25">
         <v>12763</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="27">
         <v>7558</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="27">
         <v>34948</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="26">
         <v>15415</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="17">
         <v>70684</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="20">
         <v>11089</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="23">
         <v>17067</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="24">
         <v>16666</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="19">
         <v>44822</v>
       </c>
       <c r="L18" s="7">
@@ -8801,52 +8802,52 @@
       <c r="M18" s="8">
         <v>29565</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N18" s="17">
         <v>52510</v>
       </c>
-      <c r="O18" s="39">
+      <c r="O18" s="20">
         <v>13385</v>
       </c>
-      <c r="P18" s="44">
+      <c r="P18" s="23">
         <v>32196</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="Q18" s="23">
         <v>25711</v>
       </c>
-      <c r="R18" s="44">
+      <c r="R18" s="23">
         <v>25597</v>
       </c>
-      <c r="S18" s="45">
+      <c r="S18" s="24">
         <v>6082</v>
       </c>
-      <c r="T18" s="38">
+      <c r="T18" s="19">
         <v>102971</v>
       </c>
-      <c r="U18" s="46">
+      <c r="U18" s="25">
         <v>17065</v>
       </c>
-      <c r="V18" s="48">
+      <c r="V18" s="27">
         <v>19814</v>
       </c>
-      <c r="W18" s="48">
+      <c r="W18" s="27">
         <v>19914</v>
       </c>
-      <c r="X18" s="47">
+      <c r="X18" s="26">
         <v>39343</v>
       </c>
       <c r="Y18" s="9">
         <v>96136</v>
       </c>
-      <c r="Z18" s="49">
+      <c r="Z18" s="28">
         <v>367123</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="24" customHeight="1">
+    <row r="19" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>236</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>237</v>
@@ -8860,7 +8861,7 @@
       <c r="F19" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="16" t="s">
         <v>241</v>
       </c>
       <c r="H19" s="10" t="s">
@@ -8872,7 +8873,7 @@
       <c r="J19" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="16" t="s">
         <v>245</v>
       </c>
       <c r="L19" s="5" t="s">
@@ -8881,7 +8882,7 @@
       <c r="M19" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="N19" s="35" t="s">
+      <c r="N19" s="16" t="s">
         <v>248</v>
       </c>
       <c r="O19" s="10" t="s">
@@ -8899,7 +8900,7 @@
       <c r="S19" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="T19" s="35" t="s">
+      <c r="T19" s="16" t="s">
         <v>254</v>
       </c>
       <c r="U19" s="10" t="s">
@@ -8921,36 +8922,36 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="12" customHeight="1">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="46">
+      <c r="B20" s="37"/>
+      <c r="C20" s="25">
         <v>11208</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="27">
         <v>7298</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="27">
         <v>32032</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="26">
         <v>12925</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="17">
         <v>63463</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="20">
         <v>10546</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="23">
         <v>14059</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="24">
         <v>15994</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="19">
         <v>40599</v>
       </c>
       <c r="L20" s="7">
@@ -8959,52 +8960,52 @@
       <c r="M20" s="8">
         <v>25479</v>
       </c>
-      <c r="N20" s="36">
+      <c r="N20" s="17">
         <v>43608</v>
       </c>
-      <c r="O20" s="39">
+      <c r="O20" s="20">
         <v>11306</v>
       </c>
-      <c r="P20" s="44">
+      <c r="P20" s="23">
         <v>23756</v>
       </c>
-      <c r="Q20" s="44">
+      <c r="Q20" s="23">
         <v>17106</v>
       </c>
-      <c r="R20" s="44">
+      <c r="R20" s="23">
         <v>22701</v>
       </c>
-      <c r="S20" s="45">
+      <c r="S20" s="24">
         <v>4579</v>
       </c>
-      <c r="T20" s="38">
+      <c r="T20" s="19">
         <v>79448</v>
       </c>
-      <c r="U20" s="46">
+      <c r="U20" s="25">
         <v>10798</v>
       </c>
-      <c r="V20" s="48">
+      <c r="V20" s="27">
         <v>12891</v>
       </c>
-      <c r="W20" s="48">
+      <c r="W20" s="27">
         <v>14378</v>
       </c>
-      <c r="X20" s="47">
+      <c r="X20" s="26">
         <v>31688</v>
       </c>
       <c r="Y20" s="9">
         <v>69755</v>
       </c>
-      <c r="Z20" s="49">
+      <c r="Z20" s="28">
         <v>296873</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="24" customHeight="1">
+    <row r="21" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>262</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>263</v>
@@ -9018,7 +9019,7 @@
       <c r="F21" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="16" t="s">
         <v>267</v>
       </c>
       <c r="H21" s="10" t="s">
@@ -9030,7 +9031,7 @@
       <c r="J21" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="K21" s="35" t="s">
+      <c r="K21" s="16" t="s">
         <v>271</v>
       </c>
       <c r="L21" s="5" t="s">
@@ -9039,7 +9040,7 @@
       <c r="M21" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="N21" s="35" t="s">
+      <c r="N21" s="16" t="s">
         <v>274</v>
       </c>
       <c r="O21" s="10" t="s">
@@ -9057,7 +9058,7 @@
       <c r="S21" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="T21" s="35" t="s">
+      <c r="T21" s="16" t="s">
         <v>280</v>
       </c>
       <c r="U21" s="10" t="s">
@@ -9079,36 +9080,36 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="12" customHeight="1">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="46">
+      <c r="B22" s="37"/>
+      <c r="C22" s="25">
         <v>5755</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="27">
         <v>4049</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="27">
         <v>17377</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="26">
         <v>7125</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="17">
         <v>34306</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="20">
         <v>6745</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="23">
         <v>8776</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="24">
         <v>10389</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="19">
         <v>25910</v>
       </c>
       <c r="L22" s="7">
@@ -9117,52 +9118,52 @@
       <c r="M22" s="8">
         <v>17765</v>
       </c>
-      <c r="N22" s="36">
+      <c r="N22" s="17">
         <v>29642</v>
       </c>
-      <c r="O22" s="39">
+      <c r="O22" s="20">
         <v>7496</v>
       </c>
-      <c r="P22" s="44">
+      <c r="P22" s="23">
         <v>11563</v>
       </c>
-      <c r="Q22" s="44">
+      <c r="Q22" s="23">
         <v>9452</v>
       </c>
-      <c r="R22" s="44">
+      <c r="R22" s="23">
         <v>16709</v>
       </c>
-      <c r="S22" s="45">
+      <c r="S22" s="24">
         <v>2326</v>
       </c>
-      <c r="T22" s="38">
+      <c r="T22" s="19">
         <v>47546</v>
       </c>
-      <c r="U22" s="46">
+      <c r="U22" s="25">
         <v>5719</v>
       </c>
-      <c r="V22" s="48">
+      <c r="V22" s="27">
         <v>6364</v>
       </c>
-      <c r="W22" s="48">
+      <c r="W22" s="27">
         <v>8075</v>
       </c>
-      <c r="X22" s="47">
+      <c r="X22" s="26">
         <v>16635</v>
       </c>
       <c r="Y22" s="9">
         <v>36793</v>
       </c>
-      <c r="Z22" s="49">
+      <c r="Z22" s="28">
         <v>174197</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="24" customHeight="1">
+    <row r="23" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>288</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>289</v>
@@ -9176,7 +9177,7 @@
       <c r="F23" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="16" t="s">
         <v>293</v>
       </c>
       <c r="H23" s="10" t="s">
@@ -9188,7 +9189,7 @@
       <c r="J23" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="K23" s="35" t="s">
+      <c r="K23" s="16" t="s">
         <v>297</v>
       </c>
       <c r="L23" s="5" t="s">
@@ -9197,7 +9198,7 @@
       <c r="M23" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="N23" s="35" t="s">
+      <c r="N23" s="16" t="s">
         <v>300</v>
       </c>
       <c r="O23" s="10" t="s">
@@ -9215,7 +9216,7 @@
       <c r="S23" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="T23" s="35" t="s">
+      <c r="T23" s="16" t="s">
         <v>306</v>
       </c>
       <c r="U23" s="10" t="s">
@@ -9237,36 +9238,36 @@
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="12" customHeight="1">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="46">
+      <c r="B24" s="37"/>
+      <c r="C24" s="25">
         <v>5220</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="27">
         <v>3859</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="27">
         <v>16798</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="26">
         <v>6828</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="17">
         <v>32705</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="20">
         <v>6695</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I24" s="23">
         <v>9547</v>
       </c>
-      <c r="J24" s="45">
+      <c r="J24" s="24">
         <v>10549</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="19">
         <v>26791</v>
       </c>
       <c r="L24" s="7">
@@ -9275,156 +9276,156 @@
       <c r="M24" s="8">
         <v>19164</v>
       </c>
-      <c r="N24" s="36">
+      <c r="N24" s="17">
         <v>32392</v>
       </c>
-      <c r="O24" s="39">
+      <c r="O24" s="20">
         <v>6574</v>
       </c>
-      <c r="P24" s="44">
+      <c r="P24" s="23">
         <v>8627</v>
       </c>
-      <c r="Q24" s="44">
+      <c r="Q24" s="23">
         <v>8222</v>
       </c>
-      <c r="R24" s="44">
+      <c r="R24" s="23">
         <v>14839</v>
       </c>
-      <c r="S24" s="45">
+      <c r="S24" s="24">
         <v>2097</v>
       </c>
-      <c r="T24" s="38">
+      <c r="T24" s="19">
         <v>40359</v>
       </c>
-      <c r="U24" s="46">
+      <c r="U24" s="25">
         <v>5088</v>
       </c>
-      <c r="V24" s="48">
+      <c r="V24" s="27">
         <v>5299</v>
       </c>
-      <c r="W24" s="48">
+      <c r="W24" s="27">
         <v>6632</v>
       </c>
-      <c r="X24" s="47">
+      <c r="X24" s="26">
         <v>13176</v>
       </c>
       <c r="Y24" s="9">
         <v>30195</v>
       </c>
-      <c r="Z24" s="49">
+      <c r="Z24" s="28">
         <v>162442</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="24" customHeight="1">
+    <row r="25" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="G25" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="H25" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="I25" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="J25" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="K25" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="K25" s="35" t="s">
+      <c r="L25" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="M25" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="N25" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="N25" s="35" t="s">
+      <c r="O25" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="O25" s="10" t="s">
+      <c r="P25" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="P25" s="10" t="s">
+      <c r="Q25" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="Q25" s="10" t="s">
+      <c r="R25" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R25" s="10" t="s">
+      <c r="S25" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="S25" s="10" t="s">
+      <c r="T25" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="T25" s="35" t="s">
+      <c r="U25" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="U25" s="10" t="s">
+      <c r="V25" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="V25" s="10" t="s">
+      <c r="W25" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="W25" s="10" t="s">
+      <c r="X25" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="X25" s="10" t="s">
+      <c r="Y25" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="Y25" s="6" t="s">
+      <c r="Z25" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="Z25" s="10" t="s">
-        <v>338</v>
-      </c>
     </row>
-    <row r="26" spans="1:26" ht="12" customHeight="1">
-      <c r="A26" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="46">
+    <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="25">
         <v>12888</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="27">
         <v>10218</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="27">
         <v>40907</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="26">
         <v>18983</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="17">
         <v>82996</v>
       </c>
-      <c r="H26" s="39">
+      <c r="H26" s="20">
         <v>15818</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="23">
         <v>27665</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="24">
         <v>25161</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="19">
         <v>68644</v>
       </c>
       <c r="L26" s="7">
@@ -9433,156 +9434,156 @@
       <c r="M26" s="8">
         <v>48022</v>
       </c>
-      <c r="N26" s="36">
+      <c r="N26" s="17">
         <v>90158</v>
       </c>
-      <c r="O26" s="39">
+      <c r="O26" s="20">
         <v>13097</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="23">
         <v>17400</v>
       </c>
-      <c r="Q26" s="44">
+      <c r="Q26" s="23">
         <v>20332</v>
       </c>
-      <c r="R26" s="44">
+      <c r="R26" s="23">
         <v>29850</v>
       </c>
-      <c r="S26" s="45">
+      <c r="S26" s="24">
         <v>5844</v>
       </c>
-      <c r="T26" s="38">
+      <c r="T26" s="19">
         <v>86523</v>
       </c>
-      <c r="U26" s="46">
+      <c r="U26" s="25">
         <v>14335</v>
       </c>
-      <c r="V26" s="48">
+      <c r="V26" s="27">
         <v>12966</v>
       </c>
-      <c r="W26" s="48">
+      <c r="W26" s="27">
         <v>14064</v>
       </c>
-      <c r="X26" s="47">
+      <c r="X26" s="26">
         <v>29951</v>
       </c>
       <c r="Y26" s="9">
         <v>71316</v>
       </c>
-      <c r="Z26" s="49">
+      <c r="Z26" s="28">
         <v>399637</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="24" customHeight="1">
+    <row r="27" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C27" s="40" t="s">
+      <c r="E27" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="F27" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="G27" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="H27" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="I27" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="J27" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="I27" s="50" t="s">
+      <c r="K27" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="J27" s="51" t="s">
+      <c r="L27" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="K27" s="35" t="s">
+      <c r="M27" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="N27" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="O27" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="N27" s="35" t="s">
+      <c r="P27" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="O27" s="40" t="s">
+      <c r="Q27" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="P27" s="50" t="s">
+      <c r="R27" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="Q27" s="50" t="s">
+      <c r="S27" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="R27" s="50" t="s">
+      <c r="T27" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="S27" s="51" t="s">
+      <c r="U27" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="T27" s="35" t="s">
+      <c r="V27" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="U27" s="40" t="s">
+      <c r="W27" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="V27" s="50" t="s">
+      <c r="X27" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="W27" s="50" t="s">
+      <c r="Y27" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="X27" s="51" t="s">
+      <c r="Z27" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="Y27" s="11" t="s">
+    </row>
+    <row r="28" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="Z27" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="13" customHeight="1">
-      <c r="A28" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="52">
+      <c r="B28" s="35"/>
+      <c r="C28" s="31">
         <v>106918</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="31">
         <v>64364</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="31">
         <v>309695</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="31">
         <v>137373</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="17">
         <v>618350</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="22">
         <v>111516</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I28" s="22">
         <v>158010</v>
       </c>
-      <c r="J28" s="41">
+      <c r="J28" s="22">
         <v>163464</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="19">
         <v>432990</v>
       </c>
       <c r="L28" s="14">
@@ -9591,69 +9592,58 @@
       <c r="M28" s="14">
         <v>297151</v>
       </c>
-      <c r="N28" s="36">
+      <c r="N28" s="17">
         <v>530143</v>
       </c>
-      <c r="O28" s="41">
+      <c r="O28" s="22">
         <v>130576</v>
       </c>
-      <c r="P28" s="41">
+      <c r="P28" s="22">
         <v>244466</v>
       </c>
-      <c r="Q28" s="41">
+      <c r="Q28" s="22">
         <v>234256</v>
       </c>
-      <c r="R28" s="41">
+      <c r="R28" s="22">
         <v>251896</v>
       </c>
-      <c r="S28" s="41">
+      <c r="S28" s="22">
         <v>53549</v>
       </c>
-      <c r="T28" s="38">
+      <c r="T28" s="19">
         <v>914743</v>
       </c>
-      <c r="U28" s="52">
+      <c r="U28" s="31">
         <v>142517</v>
       </c>
-      <c r="V28" s="52">
+      <c r="V28" s="31">
         <v>150592</v>
       </c>
-      <c r="W28" s="52">
+      <c r="W28" s="31">
         <v>186862</v>
       </c>
-      <c r="X28" s="52">
+      <c r="X28" s="31">
         <v>319629</v>
       </c>
       <c r="Y28" s="9">
         <v>799600</v>
       </c>
-      <c r="Z28" s="53">
+      <c r="Z28" s="32">
         <v>3295826</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="U1:Y1"/>
     <mergeCell ref="Z1:Z2"/>
@@ -9664,13 +9654,19 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/data/source/fr_dc_age_sex/xlsx/2007_dc_age_sex_e.xlsx
+++ b/data/source/fr_dc_age_sex/xlsx/2007_dc_age_sex_e.xlsx
@@ -6740,10 +6740,10 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>71+ or above</t>
-  </si>
-  <si>
-    <t>71+ or above Sub-total</t>
+    <t>71 or above</t>
+  </si>
+  <si>
+    <t>71 or above Sub-total</t>
   </si>
 </sst>
 </file>
@@ -7074,24 +7074,6 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7106,6 +7088,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7136,6 +7124,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7439,7 +7439,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7461,52 +7461,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="49" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52" t="s">
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="40" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="40" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="43" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
@@ -7576,7 +7576,7 @@
       <c r="Y2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="44"/>
+      <c r="Z2" s="38"/>
     </row>
     <row r="3" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -7659,10 +7659,10 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="25">
         <v>1631</v>
       </c>
@@ -7817,10 +7817,10 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="25">
         <v>5384</v>
       </c>
@@ -7975,10 +7975,10 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="25">
         <v>7040</v>
       </c>
@@ -8133,10 +8133,10 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="25">
         <v>8970</v>
       </c>
@@ -8291,10 +8291,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="25">
         <v>9609</v>
       </c>
@@ -8449,10 +8449,10 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="25">
         <v>12440</v>
       </c>
@@ -8607,10 +8607,10 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="25">
         <v>14010</v>
       </c>
@@ -8765,10 +8765,10 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="25">
         <v>12763</v>
       </c>
@@ -8923,10 +8923,10 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="25">
         <v>11208</v>
       </c>
@@ -9081,10 +9081,10 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="25">
         <v>5755</v>
       </c>
@@ -9239,10 +9239,10 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="B24" s="37"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="25">
         <v>5220</v>
       </c>
@@ -9397,10 +9397,10 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="53" t="s">
         <v>376</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="25">
         <v>12888</v>
       </c>
@@ -9555,10 +9555,10 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="B28" s="35"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="31">
         <v>106918</v>
       </c>
@@ -9644,6 +9644,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="U1:Y1"/>
     <mergeCell ref="Z1:Z2"/>
@@ -9654,17 +9665,6 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/source/fr_dc_age_sex/xlsx/2007_dc_age_sex_e.xlsx
+++ b/data/source/fr_dc_age_sex/xlsx/2007_dc_age_sex_e.xlsx
@@ -6740,10 +6740,10 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>71 or above</t>
-  </si>
-  <si>
-    <t>71 or above Sub-total</t>
+    <t>71+ or above</t>
+  </si>
+  <si>
+    <t>71+ or above Sub-total</t>
   </si>
 </sst>
 </file>
@@ -7074,6 +7074,24 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7088,12 +7106,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7124,18 +7136,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7439,7 +7439,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7461,52 +7461,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="45" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="34" t="s">
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="34" t="s">
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37" t="s">
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
@@ -7576,7 +7576,7 @@
       <c r="Y2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="38"/>
+      <c r="Z2" s="44"/>
     </row>
     <row r="3" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -7659,10 +7659,10 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="25">
         <v>1631</v>
       </c>
@@ -7817,10 +7817,10 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="25">
         <v>5384</v>
       </c>
@@ -7975,10 +7975,10 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="25">
         <v>7040</v>
       </c>
@@ -8133,10 +8133,10 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="25">
         <v>8970</v>
       </c>
@@ -8291,10 +8291,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="25">
         <v>9609</v>
       </c>
@@ -8449,10 +8449,10 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="25">
         <v>12440</v>
       </c>
@@ -8607,10 +8607,10 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="25">
         <v>14010</v>
       </c>
@@ -8765,10 +8765,10 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="25">
         <v>12763</v>
       </c>
@@ -8923,10 +8923,10 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="25">
         <v>11208</v>
       </c>
@@ -9081,10 +9081,10 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="B22" s="40"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="25">
         <v>5755</v>
       </c>
@@ -9239,10 +9239,10 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="25">
         <v>5220</v>
       </c>
@@ -9397,10 +9397,10 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="B26" s="54"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="25">
         <v>12888</v>
       </c>
@@ -9555,10 +9555,10 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="B28" s="52"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="31">
         <v>106918</v>
       </c>
@@ -9644,17 +9644,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="U1:Y1"/>
     <mergeCell ref="Z1:Z2"/>
@@ -9665,6 +9654,17 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
